--- a/results/visibilityTest/visibilityTest_depression.xlsx
+++ b/results/visibilityTest/visibilityTest_depression.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,7 +458,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>56367536</t>
+          <t>56189087</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -490,14 +490,14 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>56365025</t>
+          <t>56279808</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>4.2</v>
+        <v>16.7</v>
       </c>
       <c r="D4" t="n">
         <v>0.8</v>
@@ -522,39 +522,39 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>56362338</t>
+          <t>56346638</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>4.2</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>56279808</t>
+          <t>56352066</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>16.7</v>
+        <v>4.2</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>56352066</t>
+          <t>56354957</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -564,7 +564,7 @@
         <v>4.2</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="9">
@@ -586,23 +586,23 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>56346638</t>
+          <t>56362338</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>8.300000000000001</v>
+        <v>4.2</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>56354957</t>
+          <t>56365025</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -612,6 +612,22 @@
         <v>4.2</v>
       </c>
       <c r="D11" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>56367536</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="D12" t="n">
         <v>0.9</v>
       </c>
     </row>

--- a/results/visibilityTest/visibilityTest_depression.xlsx
+++ b/results/visibilityTest/visibilityTest_depression.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -631,6 +631,118 @@
         <v>0.9</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>56696990</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>56702182</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>56708148</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>56710691</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>56783666</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>8</v>
+      </c>
+      <c r="C17" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>56787409</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C18" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>56789859</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
